--- a/Challenge I/Netzplan.xlsx
+++ b/Challenge I/Netzplan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\freese\OneDrive - TRANSWAGGON GmbH\Desktop\Berufsschule\Rechnernetze-I\Challenge I\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{09220722-4CEF-40B7-8353-1E9601AB586F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ABFDB47-36BA-425B-A9DE-D8AC2F5EBC0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{BF2EF337-4E6F-4065-AEA0-FF1884DD42DB}"/>
+    <workbookView xWindow="5760" yWindow="0" windowWidth="17280" windowHeight="8964" xr2:uid="{BF2EF337-4E6F-4065-AEA0-FF1884DD42DB}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -122,13 +122,13 @@
     <t>10.1.10.0</t>
   </si>
   <si>
-    <t>10.1.100.0</t>
-  </si>
-  <si>
     <t>/23</t>
   </si>
   <si>
     <t>Server</t>
+  </si>
+  <si>
+    <t>192.168.100.0</t>
   </si>
 </sst>
 </file>
@@ -482,11 +482,12 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="13.5546875" customWidth="1"/>
     <col min="4" max="4" width="18.77734375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -610,7 +611,7 @@
         <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C9">
         <v>70</v>
@@ -649,7 +650,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B12" t="s">
         <v>5</v>
@@ -658,7 +659,7 @@
         <v>100</v>
       </c>
       <c r="D12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
